--- a/export_tools/паспорт.xlsx
+++ b/export_tools/паспорт.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvdemon/src/structurizer/export_tools/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761AD512-3154-8E42-9B19-3B525570F4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="26280" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Боевой стенд" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -67,97 +61,97 @@
     <t>Мобильный телохранитель</t>
   </si>
   <si>
+    <t>Реализация сценариев трэкинга</t>
+  </si>
+  <si>
+    <t>BPM Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle Enteprise Linux; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPM; </t>
+  </si>
+  <si>
+    <t>BPM First</t>
+  </si>
+  <si>
+    <t>Учет дронов</t>
+  </si>
+  <si>
+    <t>Inventory server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory; </t>
+  </si>
+  <si>
     <t>Мобильные телефоны и планшеты клиентов во внешней сети</t>
   </si>
   <si>
+    <t>iOS Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мобильное приложение клиента; </t>
+  </si>
+  <si>
+    <t>Backend для мобильного приложения</t>
+  </si>
+  <si>
+    <t>BFF Server Mobile 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend мобильного приложения клиента; </t>
+  </si>
+  <si>
+    <t>Backend для веба</t>
+  </si>
+  <si>
+    <t>BFF Server Web 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend веб приложения клиента; </t>
+  </si>
+  <si>
+    <t>BFF Server Mobile 3</t>
+  </si>
+  <si>
+    <t>BFF Server Web 2</t>
+  </si>
+  <si>
+    <t>BFF Server Web 1</t>
+  </si>
+  <si>
+    <t>BFF Server Mobile 1</t>
+  </si>
+  <si>
+    <t>Прием оплат и контроль расходов</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billing; </t>
+  </si>
+  <si>
+    <t>Стационарные компьютеры пользователей во внешней сети или мобильные устройства с установленным браузером</t>
+  </si>
+  <si>
+    <t>Client Device 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows; MacOS; Linux Ubuntu; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Веб приложение клиента; </t>
+  </si>
+  <si>
     <t>Android Device</t>
   </si>
   <si>
     <t xml:space="preserve">iOS; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мобильное приложение клиента; </t>
-  </si>
-  <si>
-    <t>Прием оплат и контроль расходов</t>
-  </si>
-  <si>
-    <t>Billing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle Enteprise Linux; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing; </t>
-  </si>
-  <si>
-    <t>Backend для веба</t>
-  </si>
-  <si>
-    <t>BFF Server Web 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backend веб приложения клиента; </t>
-  </si>
-  <si>
-    <t>BFF Server Web 2</t>
-  </si>
-  <si>
-    <t>Backend для мобильного приложения</t>
-  </si>
-  <si>
-    <t>BFF Server Mobile 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backend мобильного приложения клиента; </t>
-  </si>
-  <si>
-    <t>BFF Server Web 3</t>
-  </si>
-  <si>
-    <t>BFF Server Mobile 1</t>
-  </si>
-  <si>
-    <t>BFF Server Mobile 2</t>
-  </si>
-  <si>
-    <t>Учет дронов</t>
-  </si>
-  <si>
-    <t>Inventory server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inventory; </t>
-  </si>
-  <si>
-    <t>Стационарные компьютеры пользователей во внешней сети или мобильные устройства с установленным браузером</t>
-  </si>
-  <si>
-    <t>Client Device 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows; MacOS; Linux Ubuntu; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Веб приложение клиента; </t>
-  </si>
-  <si>
-    <t>iOS Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android; </t>
-  </si>
-  <si>
-    <t>Реализация сценариев трэкинга</t>
-  </si>
-  <si>
-    <t>BPM First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPM; </t>
-  </si>
-  <si>
-    <t>BPM Second</t>
   </si>
   <si>
     <t>Подсистема трэкинга дронов в реальном времени</t>
@@ -172,8 +166,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,21 +204,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +248,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -296,7 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -331,10 +316,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -507,21 +491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="29" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -585,7 +562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -593,19 +570,19 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -613,19 +590,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -636,16 +613,16 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -659,13 +636,13 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -673,19 +650,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -696,16 +673,16 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -713,19 +690,19 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -733,19 +710,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -753,19 +730,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -773,19 +750,19 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -793,19 +770,19 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="M13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -813,19 +790,19 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
       <c r="M14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -839,7 +816,7 @@
         <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
         <v>48</v>
